--- a/data/Pearlite.xlsx
+++ b/data/Pearlite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>k</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,302 +451,3736 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>f_eq</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="B2" t="n">
-        <v>2.939641902795276e+18</v>
+        <v>8296108.25892588</v>
       </c>
       <c r="C2" t="n">
-        <v>2.679236133140597</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D2" t="n">
-        <v>9.833456396934892e-07</v>
+        <v>7.766834521259607e-17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.01005247656681341</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>752</v>
+        <v>770</v>
       </c>
       <c r="B3" t="n">
-        <v>17708534774.50733</v>
+        <v>1050273.026552225</v>
       </c>
       <c r="C3" t="n">
-        <v>2.679242202049361</v>
+        <v>2.328378142385132</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7583803730813647</v>
+        <v>9.552818821970193e-15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01005247656681352</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>742</v>
+        <v>769</v>
       </c>
       <c r="B4" t="n">
-        <v>139373098.5016096</v>
+        <v>315178.6654386067</v>
       </c>
       <c r="C4" t="n">
-        <v>2.679236039836474</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9714156115327233</v>
+        <v>1.574999802541595e-13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01901292380555608</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>732</v>
+        <v>768</v>
       </c>
       <c r="B5" t="n">
-        <v>8728100.569925789</v>
+        <v>134672.710066417</v>
       </c>
       <c r="C5" t="n">
-        <v>2.67923697045617</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9856277947949711</v>
+        <v>1.140505788810639e-12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0795027743056631</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>722</v>
+        <v>767</v>
       </c>
       <c r="B6" t="n">
-        <v>1331510.279818156</v>
+        <v>69839.19233465014</v>
       </c>
       <c r="C6" t="n">
-        <v>2.679237270018784</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9891129846124506</v>
+        <v>5.261448016926956e-12</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2045667654033763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>712</v>
+        <v>766</v>
       </c>
       <c r="B7" t="n">
-        <v>335026.9276954297</v>
+        <v>40936.97982140769</v>
       </c>
       <c r="C7" t="n">
-        <v>2.679237576921977</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9896166289179814</v>
+        <v>1.824947535920314e-11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3669628016190629</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>702</v>
+        <v>765</v>
       </c>
       <c r="B8" t="n">
-        <v>116409.0760090837</v>
+        <v>26112.3808141131</v>
       </c>
       <c r="C8" t="n">
-        <v>2.679237223350664</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9896166163787099</v>
+        <v>5.198897071517033e-11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5244640941773212</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>692</v>
+        <v>764</v>
       </c>
       <c r="B9" t="n">
-        <v>50747.00893835034</v>
+        <v>17719.53878085168</v>
       </c>
       <c r="C9" t="n">
-        <v>2.679237232274681</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9898608082823355</v>
+        <v>1.282319543863857e-10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6556980639467939</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>682</v>
+        <v>763</v>
       </c>
       <c r="B10" t="n">
-        <v>26200.13306640936</v>
+        <v>12606.29320446455</v>
       </c>
       <c r="C10" t="n">
-        <v>2.679236711878416</v>
+        <v>2.328378142385132</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9898607881538221</v>
+        <v>2.833230560414727e-10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7520494366006593</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>672</v>
+        <v>762</v>
       </c>
       <c r="B11" t="n">
-        <v>15432.99642177549</v>
+        <v>9309.327209799652</v>
       </c>
       <c r="C11" t="n">
-        <v>2.679236878586219</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9898607936870801</v>
+        <v>5.739279722835605e-10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8235430702606552</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>662</v>
+        <v>761</v>
       </c>
       <c r="B12" t="n">
-        <v>10110.25060474054</v>
+        <v>7085.23794307036</v>
       </c>
       <c r="C12" t="n">
-        <v>2.67923705831824</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9898607999862372</v>
+        <v>1.083724476222698e-09</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8702237270793658</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>652</v>
+        <v>760</v>
       </c>
       <c r="B13" t="n">
-        <v>7233.323740868658</v>
+        <v>5528.582884704616</v>
       </c>
       <c r="C13" t="n">
-        <v>2.679237292013269</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9898608078217856</v>
+        <v>1.930988888095573e-09</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9068626678139475</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>642</v>
+        <v>759</v>
       </c>
       <c r="B14" t="n">
-        <v>5576.546972907936</v>
+        <v>4405.178122969103</v>
       </c>
       <c r="C14" t="n">
-        <v>2.679239097041428</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D14" t="n">
-        <v>0.989981096832574</v>
+        <v>3.276989848690889e-09</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9311590215933522</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>632</v>
+        <v>758</v>
       </c>
       <c r="B15" t="n">
-        <v>4586.138859328978</v>
+        <v>3573.191750636971</v>
       </c>
       <c r="C15" t="n">
-        <v>2.67923800987298</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9899810576890825</v>
+        <v>5.335084711563232e-09</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.949195998321159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>622</v>
+        <v>757</v>
       </c>
       <c r="B16" t="n">
-        <v>3992.102514588618</v>
+        <v>2943.232122969876</v>
       </c>
       <c r="C16" t="n">
-        <v>2.679236958520221</v>
+        <v>2.32837814238513</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9899810225909553</v>
+        <v>8.380401384456072e-09</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9616097366894287</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>612</v>
+        <v>756</v>
       </c>
       <c r="B17" t="n">
-        <v>3655.762971564157</v>
+        <v>2457.011569691204</v>
       </c>
       <c r="C17" t="n">
-        <v>2.679238626805852</v>
+        <v>2.32837814238513</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9899810798898804</v>
+        <v>1.275997954589288e-08</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9703708797544249</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>602</v>
+        <v>755</v>
       </c>
       <c r="B18" t="n">
-        <v>3504.801030735093</v>
+        <v>2075.392629868162</v>
       </c>
       <c r="C18" t="n">
-        <v>2.679239759570122</v>
+        <v>2.32837814238513</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9899811213186233</v>
+        <v>1.890323941863853e-08</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9766966301600728</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>592</v>
+        <v>754</v>
       </c>
       <c r="B19" t="n">
-        <v>3503.975637072335</v>
+        <v>1771.41559296124</v>
       </c>
       <c r="C19" t="n">
-        <v>2.679237306901767</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D19" t="n">
-        <v>0.989981033266586</v>
+        <v>2.733264331182455e-08</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9813585229764966</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>582</v>
+        <v>753</v>
       </c>
       <c r="B20" t="n">
-        <v>3641.730941106195</v>
+        <v>1526.086715427269</v>
       </c>
       <c r="C20" t="n">
-        <v>2.67923658720408</v>
+        <v>2.32837814238513</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9899810074621104</v>
+        <v>3.867441459432696e-08</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9865679856783642</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>572</v>
+        <v>752</v>
       </c>
       <c r="B21" t="n">
-        <v>3924.541768630801</v>
+        <v>1325.754738766698</v>
       </c>
       <c r="C21" t="n">
-        <v>2.679237231151415</v>
+        <v>2.32837814238513</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9899810300760107</v>
+        <v>5.366918030978182e-08</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9902648798329282</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>751</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1160.431764488154</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7.318240699231089e-08</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9918906721573362</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>750</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1022.692231188924</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D23" t="n">
+        <v>9.821450412141968e-08</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9940359032873157</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>749</v>
+      </c>
+      <c r="B24" t="n">
+        <v>906.9351217982636</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.299104758182605e-07</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9956105399556482</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>748</v>
+      </c>
+      <c r="B25" t="n">
+        <v>808.8797968290569</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.695690086094869e-07</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9965070942490696</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>747</v>
+      </c>
+      <c r="B26" t="n">
+        <v>725.2153046091222</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.186508911662411e-07</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9974255323245511</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>746</v>
+      </c>
+      <c r="B27" t="n">
+        <v>653.3524707136738</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.787866706802834e-07</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.998111801937184</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>745</v>
+      </c>
+      <c r="B28" t="n">
+        <v>591.2460322575545</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.517834598013682e-07</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9985560868415236</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>744</v>
+      </c>
+      <c r="B29" t="n">
+        <v>537.265280732125</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.396308176801176e-07</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.998954762488363</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>743</v>
+      </c>
+      <c r="B30" t="n">
+        <v>490.0987982709453</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.445056385061333e-07</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9992309756018399</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>742</v>
+      </c>
+      <c r="B31" t="n">
+        <v>448.6834845317055</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6.687759908815978e-07</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9994581427007637</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>741</v>
+      </c>
+      <c r="B32" t="n">
+        <v>412.1511095586343</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D32" t="n">
+        <v>8.150038613218297e-07</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9996196466070837</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>740</v>
+      </c>
+      <c r="B33" t="n">
+        <v>379.7876607548091</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D33" t="n">
+        <v>9.859467650320063e-07</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.999744698063787</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>739</v>
+      </c>
+      <c r="B34" t="n">
+        <v>351.0021319997958</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.184558196792038e-06</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9998330967157979</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>738</v>
+      </c>
+      <c r="B35" t="n">
+        <v>325.3023523732463</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.413986904218395e-06</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9998967926260789</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>737</v>
+      </c>
+      <c r="B36" t="n">
+        <v>302.2761134408282</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.677574974801362e-06</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>736</v>
+      </c>
+      <c r="B37" t="n">
+        <v>281.5763203881907</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.978854736885894e-06</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>735</v>
+      </c>
+      <c r="B38" t="n">
+        <v>262.9092246699084</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.321544483130432e-06</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>734</v>
+      </c>
+      <c r="B39" t="n">
+        <v>246.0250352087034</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.709543032904652e-06</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>733</v>
+      </c>
+      <c r="B40" t="n">
+        <v>230.710379247534</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.146923157543391e-06</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>732</v>
+      </c>
+      <c r="B41" t="n">
+        <v>216.7822117027769</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3.637923899340062e-06</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>731</v>
+      </c>
+      <c r="B42" t="n">
+        <v>204.0828664316972</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.186941821616266e-06</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>730</v>
+      </c>
+      <c r="B43" t="n">
+        <v>192.4760134049675</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4.798521233138841e-06</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>729</v>
+      </c>
+      <c r="B44" t="n">
+        <v>181.8433388594239</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5.477343435560493e-06</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>728</v>
+      </c>
+      <c r="B45" t="n">
+        <v>172.0818057277462</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6.228215047435162e-06</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>727</v>
+      </c>
+      <c r="B46" t="n">
+        <v>163.1013823306486</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D46" t="n">
+        <v>7.056055462697417e-06</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>726</v>
+      </c>
+      <c r="B47" t="n">
+        <v>154.8231508885567</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D47" t="n">
+        <v>7.965883505320005e-06</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>725</v>
+      </c>
+      <c r="B48" t="n">
+        <v>147.1777256292588</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D48" t="n">
+        <v>8.962803345155623e-06</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>724</v>
+      </c>
+      <c r="B49" t="n">
+        <v>140.1039244358503</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.005198974276063e-05</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>723</v>
+      </c>
+      <c r="B50" t="n">
+        <v>133.5476490600145</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.12386726933e-05</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>722</v>
+      </c>
+      <c r="B51" t="n">
+        <v>127.4609376397817</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.252812154143419e-05</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>721</v>
+      </c>
+      <c r="B52" t="n">
+        <v>121.8011601498903</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.392562864045368e-05</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>720</v>
+      </c>
+      <c r="B53" t="n">
+        <v>116.5303328865397</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.543649262981894e-05</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>719</v>
+      </c>
+      <c r="B54" t="n">
+        <v>111.6145324584391</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.706600140574446e-05</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>718</v>
+      </c>
+      <c r="B55" t="n">
+        <v>107.0233932612889</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.881941485953987e-05</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>717</v>
+      </c>
+      <c r="B56" t="n">
+        <v>102.7296752368879</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.070194745810285e-05</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>716</v>
+      </c>
+      <c r="B57" t="n">
+        <v>98.70889100299497</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.271875074027566e-05</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>715</v>
+      </c>
+      <c r="B58" t="n">
+        <v>94.93898329646346</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.487489580177654e-05</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>714</v>
+      </c>
+      <c r="B59" t="n">
+        <v>91.40004518631454</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.717535584005043e-05</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>713</v>
+      </c>
+      <c r="B60" t="n">
+        <v>88.07407675312034</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.962498882879065e-05</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>712</v>
+      </c>
+      <c r="B61" t="n">
+        <v>84.9447729498367</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.22285203899332e-05</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>711</v>
+      </c>
+      <c r="B62" t="n">
+        <v>81.99733819933734</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.499052692881844e-05</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>710</v>
+      </c>
+      <c r="B63" t="n">
+        <v>79.21832397911072</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3.791541909579599e-05</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>709</v>
+      </c>
+      <c r="B64" t="n">
+        <v>76.59548622073521</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.100742563497498e-05</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>708</v>
+      </c>
+      <c r="B65" t="n">
+        <v>74.11765983243161</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.427057767807903e-05</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>707</v>
+      </c>
+      <c r="B66" t="n">
+        <v>71.77464805459115</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4.77086935383772e-05</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>706</v>
+      </c>
+      <c r="B67" t="n">
+        <v>69.55712469464069</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5.132536405666801e-05</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>705</v>
+      </c>
+      <c r="B68" t="n">
+        <v>67.45654757038592</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5.512393854802759e-05</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>704</v>
+      </c>
+      <c r="B69" t="n">
+        <v>65.46508172922817</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5.910751139480411e-05</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>703</v>
+      </c>
+      <c r="B70" t="n">
+        <v>63.57553121198892</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D70" t="n">
+        <v>6.327890932793583e-05</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>702</v>
+      </c>
+      <c r="B71" t="n">
+        <v>61.7812783006218</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D71" t="n">
+        <v>6.764067943524468e-05</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>701</v>
+      </c>
+      <c r="B72" t="n">
+        <v>60.07622933395574</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D72" t="n">
+        <v>7.219507793187053e-05</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>700</v>
+      </c>
+      <c r="B73" t="n">
+        <v>58.45476629893331</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D73" t="n">
+        <v>7.69440597245287e-05</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>699</v>
+      </c>
+      <c r="B74" t="n">
+        <v>56.91170351007229</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D74" t="n">
+        <v>8.188926879770877e-05</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>698</v>
+      </c>
+      <c r="B75" t="n">
+        <v>55.44224877990965</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D75" t="n">
+        <v>8.703202944645161e-05</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>697</v>
+      </c>
+      <c r="B76" t="n">
+        <v>54.04196856038331</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D76" t="n">
+        <v>9.237333837682953e-05</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>696</v>
+      </c>
+      <c r="B77" t="n">
+        <v>52.70675660143756</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D77" t="n">
+        <v>9.791385769175179e-05</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>695</v>
+      </c>
+      <c r="B78" t="n">
+        <v>51.4328057302443</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.0001036539087763441</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>694</v>
+      </c>
+      <c r="B79" t="n">
+        <v>50.21658240371874</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.0001095934670937219</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>693</v>
+      </c>
+      <c r="B80" t="n">
+        <v>49.05480372961164</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.000115732157898679</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>692</v>
+      </c>
+      <c r="B81" t="n">
+        <v>47.94441668836832</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.0001220692528736066</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>691</v>
+      </c>
+      <c r="B82" t="n">
+        <v>46.88257931998535</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.00012860366768777</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>690</v>
+      </c>
+      <c r="B83" t="n">
+        <v>45.86664366794827</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.0001353339604780255</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>689</v>
+      </c>
+      <c r="B84" t="n">
+        <v>44.8941402966051</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.000142258331246077</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>688</v>
+      </c>
+      <c r="B85" t="n">
+        <v>43.96276421950399</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0001493746221645986</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>687</v>
+      </c>
+      <c r="B86" t="n">
+        <v>43.07036209474161</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.0001566803187816848</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>686</v>
+      </c>
+      <c r="B87" t="n">
+        <v>42.21492055957556</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.000164172552110589</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>685</v>
+      </c>
+      <c r="B88" t="n">
+        <v>41.39455559077708</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.0001718481015891551</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>684</v>
+      </c>
+      <c r="B89" t="n">
+        <v>40.60750278968849</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0001797033988909511</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>683</v>
+      </c>
+      <c r="B90" t="n">
+        <v>39.85210850194241</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.0001877345325679877</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>682</v>
+      </c>
+      <c r="B91" t="n">
+        <v>39.12682169148515</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.0001959372535026222</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>681</v>
+      </c>
+      <c r="B92" t="n">
+        <v>38.43018649709167</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.0002043069811444823</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>680</v>
+      </c>
+      <c r="B93" t="n">
+        <v>37.76083540711756</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.0002128388105062373</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>679</v>
+      </c>
+      <c r="B94" t="n">
+        <v>37.11748299491801</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.0002215275198904365</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>678</v>
+      </c>
+      <c r="B95" t="n">
+        <v>36.49892016328781</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.000230367579318101</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>677</v>
+      </c>
+      <c r="B96" t="n">
+        <v>35.90400885154035</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.0002393531596282259</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>676</v>
+      </c>
+      <c r="B97" t="n">
+        <v>35.33167716351297</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.0002484781422162186</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>675</v>
+      </c>
+      <c r="B98" t="n">
+        <v>34.78091487894823</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.0002577361293780244</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>674</v>
+      </c>
+      <c r="B99" t="n">
+        <v>34.25076931440586</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.0002671204552257554</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>673</v>
+      </c>
+      <c r="B100" t="n">
+        <v>33.74034150316502</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.0002766241971397324</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>672</v>
+      </c>
+      <c r="B101" t="n">
+        <v>33.24878266652983</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.0002862401877211349</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>671</v>
+      </c>
+      <c r="B102" t="n">
+        <v>32.77529095159257</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.0002959610272088078</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>670</v>
+      </c>
+      <c r="B103" t="n">
+        <v>32.31910841287171</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.0003057790963232901</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>669</v>
+      </c>
+      <c r="B104" t="n">
+        <v>31.87951821736172</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.0003156865695007802</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>668</v>
+      </c>
+      <c r="B105" t="n">
+        <v>31.45584205443235</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.0003256754284795034</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>667</v>
+      </c>
+      <c r="B106" t="n">
+        <v>31.047437733724</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.0003357374762007898</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>666</v>
+      </c>
+      <c r="B107" t="n">
+        <v>30.65369695572177</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.0003458643509871726</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>665</v>
+      </c>
+      <c r="B108" t="n">
+        <v>30.27404324107226</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.0003560475409599435</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>664</v>
+      </c>
+      <c r="B109" t="n">
+        <v>29.90793000595538</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.0003662783986587013</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>663</v>
+      </c>
+      <c r="B110" t="n">
+        <v>29.55483877194666</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.0003765481558257873</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>662</v>
+      </c>
+      <c r="B111" t="n">
+        <v>29.21427749982011</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.0003868479383189386</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>661</v>
+      </c>
+      <c r="B112" t="n">
+        <v>28.88577903766058</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.0003971687811157976</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>660</v>
+      </c>
+      <c r="B113" t="n">
+        <v>28.56889967448306</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.0004075016433747301</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>659</v>
+      </c>
+      <c r="B114" t="n">
+        <v>28.26321779131007</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.0004178374235167621</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>658</v>
+      </c>
+      <c r="B115" t="n">
+        <v>27.96833260233841</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.0004281669742944505</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>657</v>
+      </c>
+      <c r="B116" t="n">
+        <v>27.68386297944466</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.0004384811178140872</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>656</v>
+      </c>
+      <c r="B117" t="n">
+        <v>27.40944635384176</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.0004487706604785733</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>655</v>
+      </c>
+      <c r="B118" t="n">
+        <v>27.14473768920761</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.0004590264078192689</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>654</v>
+      </c>
+      <c r="B119" t="n">
+        <v>26.88940852107153</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.0004692391791860279</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>653</v>
+      </c>
+      <c r="B120" t="n">
+        <v>26.64314605766736</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.0004793998222656875</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>652</v>
+      </c>
+      <c r="B121" t="n">
+        <v>26.40565233784642</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.0004894992274004104</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>651</v>
+      </c>
+      <c r="B122" t="n">
+        <v>26.17664344199496</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.0004995283416782982</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>650</v>
+      </c>
+      <c r="B123" t="n">
+        <v>25.95584875222197</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.0005094781827699587</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>649</v>
+      </c>
+      <c r="B124" t="n">
+        <v>25.74301025837352</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.0005193398524859029</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>648</v>
+      </c>
+      <c r="B125" t="n">
+        <v>25.53788190670125</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.0005291045500307627</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>647</v>
+      </c>
+      <c r="B126" t="n">
+        <v>25.34022898825393</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.0005387635849317145</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>646</v>
+      </c>
+      <c r="B127" t="n">
+        <v>25.1498275642864</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.000548308389619721</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>645</v>
+      </c>
+      <c r="B128" t="n">
+        <v>24.96646392618709</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.0005577305316433538</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>644</v>
+      </c>
+      <c r="B129" t="n">
+        <v>24.78993408760968</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.0005670217254966358</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>643</v>
+      </c>
+      <c r="B130" t="n">
+        <v>24.62004330667194</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.0005761738440431333</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>642</v>
+      </c>
+      <c r="B131" t="n">
+        <v>24.45660563623945</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.0005851789295203302</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>641</v>
+      </c>
+      <c r="B132" t="n">
+        <v>24.29944350045982</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.000594029204109347</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>640</v>
+      </c>
+      <c r="B133" t="n">
+        <v>24.14838729584601</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.0006027170800564945</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>639</v>
+      </c>
+      <c r="B134" t="n">
+        <v>24.00327501533135</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.0006112351693344303</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>638</v>
+      </c>
+      <c r="B135" t="n">
+        <v>23.86395189383108</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.0006195762928320437</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>637</v>
+      </c>
+      <c r="B136" t="n">
+        <v>23.7302700739514</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.0006277334890634424</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>636</v>
+      </c>
+      <c r="B137" t="n">
+        <v>23.60208829058206</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.0006357000223876658</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>635</v>
+      </c>
+      <c r="B138" t="n">
+        <v>23.47927157319784</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.0006434693907321447</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>634</v>
+      </c>
+      <c r="B139" t="n">
+        <v>23.36169096477713</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.0006510353328139744</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>633</v>
+      </c>
+      <c r="B140" t="n">
+        <v>23.24922325631895</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.0006583918348545543</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>632</v>
+      </c>
+      <c r="B141" t="n">
+        <v>23.14175073601436</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.0006655331367839969</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>631</v>
+      </c>
+      <c r="B142" t="n">
+        <v>23.03916095218765</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.0006724537379332704</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>630</v>
+      </c>
+      <c r="B143" t="n">
+        <v>22.94134648918703</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.0006791484022128501</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>629</v>
+      </c>
+      <c r="B144" t="n">
+        <v>22.84820475545733</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.0006856121627779734</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>628</v>
+      </c>
+      <c r="B145" t="n">
+        <v>22.75963778307953</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.0006918403261816109</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>627</v>
+      </c>
+      <c r="B146" t="n">
+        <v>22.67555203810977</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.0006978284760172859</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>626</v>
+      </c>
+      <c r="B147" t="n">
+        <v>22.59585824109465</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.0007035724760548836</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>625</v>
+      </c>
+      <c r="B148" t="n">
+        <v>22.52047119717949</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.0007090684728737192</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>624</v>
+      </c>
+      <c r="B149" t="n">
+        <v>22.44930963526583</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.0007143128979977983</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>623</v>
+      </c>
+      <c r="B150" t="n">
+        <v>22.38229605570965</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.0007193024695393296</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>622</v>
+      </c>
+      <c r="B151" t="n">
+        <v>22.31935658608244</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.0007240341933573887</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>621</v>
+      </c>
+      <c r="B152" t="n">
+        <v>22.26042084455127</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.0007285053637393086</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>620</v>
+      </c>
+      <c r="B153" t="n">
+        <v>22.20542181046001</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.0007327135636132798</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>619</v>
+      </c>
+      <c r="B154" t="n">
+        <v>22.15429570172049</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.0007366566643014033</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>618</v>
+      </c>
+      <c r="B155" t="n">
+        <v>22.10698185864838</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.0007403328248230003</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>617</v>
+      </c>
+      <c r="B156" t="n">
+        <v>22.06342263390026</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.0007437404907587933</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>616</v>
+      </c>
+      <c r="B157" t="n">
+        <v>22.0235632881901</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.0007468783926870888</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>615</v>
+      </c>
+      <c r="B158" t="n">
+        <v>21.98735189148412</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.0007497455442036756</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>614</v>
+      </c>
+      <c r="B159" t="n">
+        <v>21.95473922939005</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.0007523412395377706</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>613</v>
+      </c>
+      <c r="B160" t="n">
+        <v>21.92567871447678</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.0007546650507766361</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>612</v>
+      </c>
+      <c r="B161" t="n">
+        <v>21.90012630227284</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.0007567168247122568</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>611</v>
+      </c>
+      <c r="B162" t="n">
+        <v>21.87804041171211</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.0007584966793234813</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>610</v>
+      </c>
+      <c r="B163" t="n">
+        <v>21.85938184980528</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.0007600049999077446</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>609</v>
+      </c>
+      <c r="B164" t="n">
+        <v>21.84411374033098</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.0007612424348766191</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>608</v>
+      </c>
+      <c r="B165" t="n">
+        <v>21.83220145635314</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.0007622098912297519</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>607</v>
+      </c>
+      <c r="B166" t="n">
+        <v>21.82361255638148</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.000762908529722065</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>606</v>
+      </c>
+      <c r="B167" t="n">
+        <v>21.8183167240041</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.0007633397597392491</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>605</v>
+      </c>
+      <c r="B168" t="n">
+        <v>21.8162857108313</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.0007635052338967356</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>604</v>
+      </c>
+      <c r="B169" t="n">
+        <v>21.81749328259895</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.0007634068423774928</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>603</v>
+      </c>
+      <c r="B170" t="n">
+        <v>21.82191516828892</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.000763046707024181</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>602</v>
+      </c>
+      <c r="B171" t="n">
+        <v>21.82952901213329</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.0007624271752010013</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>601</v>
+      </c>
+      <c r="B172" t="n">
+        <v>21.84031432837554</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.0007615508134409725</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>600</v>
+      </c>
+      <c r="B173" t="n">
+        <v>21.85425245867123</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.0007604204008940519</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>599</v>
+      </c>
+      <c r="B174" t="n">
+        <v>21.87132653201655</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.0007590389225916158</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>598</v>
+      </c>
+      <c r="B175" t="n">
+        <v>21.89152142710002</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.0007574095625428158</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>597</v>
+      </c>
+      <c r="B176" t="n">
+        <v>21.91482373697931</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.0007555356966780776</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>596</v>
+      </c>
+      <c r="B177" t="n">
+        <v>21.9412217359903</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.0007534208856550069</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>595</v>
+      </c>
+      <c r="B178" t="n">
+        <v>21.97070534880218</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.0007510688675417866</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>594</v>
+      </c>
+      <c r="B179" t="n">
+        <v>22.00326612153674</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.0007484835503929416</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>593</v>
+      </c>
+      <c r="B180" t="n">
+        <v>22.0388971948749</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.0007456690047322255</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>592</v>
+      </c>
+      <c r="B181" t="n">
+        <v>22.07759327907936</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.0007426294559570579</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>591</v>
+      </c>
+      <c r="B182" t="n">
+        <v>22.11935063086543</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.000739369276678789</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>590</v>
+      </c>
+      <c r="B183" t="n">
+        <v>22.16416703205718</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.0007358929790127473</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>589</v>
+      </c>
+      <c r="B184" t="n">
+        <v>22.21204176996915</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.0007322052068317789</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>588</v>
+      </c>
+      <c r="B185" t="n">
+        <v>22.26297561945904</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.0007283107279966724</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>587</v>
+      </c>
+      <c r="B186" t="n">
+        <v>22.3169708265993</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.0007242144265764271</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>586</v>
+      </c>
+      <c r="B187" t="n">
+        <v>22.37403109391844</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.0007199212950713265</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>585</v>
+      </c>
+      <c r="B188" t="n">
+        <v>22.43416156716809</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.0007154364266509349</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>584</v>
+      </c>
+      <c r="B189" t="n">
+        <v>22.49736882357335</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.0007107650074192034</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>583</v>
+      </c>
+      <c r="B190" t="n">
+        <v>22.56366086152681</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.0007059123087182653</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>582</v>
+      </c>
+      <c r="B191" t="n">
+        <v>22.6330470916904</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.0007008836794822045</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>581</v>
+      </c>
+      <c r="B192" t="n">
+        <v>22.7055383294724</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.0006956845386515301</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>580</v>
+      </c>
+      <c r="B193" t="n">
+        <v>22.78114678884565</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.000690320367659054</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>579</v>
+      </c>
+      <c r="B194" t="n">
+        <v>22.85988607748261</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.0006847967029968796</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>578</v>
+      </c>
+      <c r="B195" t="n">
+        <v>22.94177119317666</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.0006791191288744174</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>577</v>
+      </c>
+      <c r="B196" t="n">
+        <v>23.02681852152946</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.0006732932699763719</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>576</v>
+      </c>
+      <c r="B197" t="n">
+        <v>23.11504583487941</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.0006673247843296481</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>575</v>
+      </c>
+      <c r="B198" t="n">
+        <v>23.20647229245377</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.000661219356287342</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>574</v>
+      </c>
+      <c r="B199" t="n">
+        <v>23.30111844172522</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.0006549826896378331</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>573</v>
+      </c>
+      <c r="B200" t="n">
+        <v>23.39900622095838</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.0006486205008462692</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>572</v>
+      </c>
+      <c r="B201" t="n">
+        <v>23.50015896293036</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.0006421385124356753</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>571</v>
+      </c>
+      <c r="B202" t="n">
+        <v>23.60460139981613</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.0006355424465139875</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>570</v>
+      </c>
+      <c r="B203" t="n">
+        <v>23.71235966922533</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.0006288380184533857</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>569</v>
+      </c>
+      <c r="B204" t="n">
+        <v>23.82346132138367</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.0006220309307274754</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>568</v>
+      </c>
+      <c r="B205" t="n">
+        <v>23.93793532745186</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.0006151268669116527</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>567</v>
+      </c>
+      <c r="B206" t="n">
+        <v>24.05581208897568</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.0006081314858514456</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>566</v>
+      </c>
+      <c r="B207" t="n">
+        <v>24.17712344846427</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.0006010504160033066</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>565</v>
+      </c>
+      <c r="B208" t="n">
+        <v>24.30190270109443</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.0005938892499517682</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>564</v>
+      </c>
+      <c r="B209" t="n">
+        <v>24.43018460753896</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.0005866535391066595</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>563</v>
+      </c>
+      <c r="B210" t="n">
+        <v>24.56200540792136</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.0005793487885834325</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
         <v>562</v>
       </c>
-      <c r="B22" t="n">
-        <v>4376.130806186112</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2.679235186026367</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.9899809613343803</v>
+      <c r="B211" t="n">
+        <v>24.69740283689785</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.000571980452269478</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>561</v>
+      </c>
+      <c r="B212" t="n">
+        <v>24.83641613987135</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.0005645539280787231</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>560</v>
+      </c>
+      <c r="B213" t="n">
+        <v>24.97908609034111</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.0005570745533966142</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>559</v>
+      </c>
+      <c r="B214" t="n">
+        <v>25.12545500839583</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.0005495476007169976</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>558</v>
+      </c>
+      <c r="B215" t="n">
+        <v>25.27556678035725</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.000541978273472235</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>557</v>
+      </c>
+      <c r="B216" t="n">
+        <v>25.42946687958279</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.0005343717020574462</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>556</v>
+      </c>
+      <c r="B217" t="n">
+        <v>25.58720238844042</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.0005267329400493288</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>555</v>
+      </c>
+      <c r="B218" t="n">
+        <v>25.74882202146393</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2.328378142385128</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.0005190669606199154</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>554</v>
+      </c>
+      <c r="B219" t="n">
+        <v>25.9143761497052</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.0005113786531450578</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>553</v>
+      </c>
+      <c r="B220" t="n">
+        <v>26.08391682629602</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.0005036728200072018</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
